--- a/melhoresPares.xlsx
+++ b/melhoresPares.xlsx
@@ -34,49 +34,49 @@
     <t>sorted_pair</t>
   </si>
   <si>
-    <t>('PETR3', 'PETR4')</t>
-  </si>
-  <si>
-    <t>('EQTL3', 'TAEE11')</t>
-  </si>
-  <si>
-    <t>('BBAS3', 'BBSE3')</t>
-  </si>
-  <si>
-    <t>('CMIG4', 'TAEE11')</t>
-  </si>
-  <si>
-    <t>('B3SA3', 'BBDC4')</t>
+    <t>('GGBR4', 'GOAU4')</t>
   </si>
   <si>
     <t>('BBDC3', 'BBDC4')</t>
   </si>
   <si>
-    <t>('BBDC3', 'BBSE3')</t>
-  </si>
-  <si>
-    <t>('BBSE3', 'ITSA4')</t>
-  </si>
-  <si>
-    <t>('BRAP4', 'GGBR4')</t>
-  </si>
-  <si>
-    <t>('EGIE3', 'SBSP3')</t>
-  </si>
-  <si>
-    <t>('FLRY3', 'QUAL3')</t>
-  </si>
-  <si>
-    <t>('GGBR4', 'GOAU4')</t>
+    <t>('CMIG4', 'ELET6')</t>
   </si>
   <si>
     <t>('KLBN11', 'SUZB3')</t>
   </si>
   <si>
-    <t>('SBSP3', 'TAEE11')</t>
-  </si>
-  <si>
-    <t>('CPFE3', 'EGIE3')</t>
+    <t>('CRFB3', 'LREN3')</t>
+  </si>
+  <si>
+    <t>('AMER3', 'MGLU3')</t>
+  </si>
+  <si>
+    <t>('BBAS3', 'BBDC3')</t>
+  </si>
+  <si>
+    <t>('BBAS3', 'BBDC4')</t>
+  </si>
+  <si>
+    <t>('CMIG4', 'ELET3')</t>
+  </si>
+  <si>
+    <t>('EGIE3', 'ENEV3')</t>
+  </si>
+  <si>
+    <t>('ELET6', 'ENBR3')</t>
+  </si>
+  <si>
+    <t>('EGIE3', 'TAEE11')</t>
+  </si>
+  <si>
+    <t>('BBAS3', 'ITUB4')</t>
+  </si>
+  <si>
+    <t>('BBDC3', 'ITUB4')</t>
+  </si>
+  <si>
+    <t>('BBDC4', 'ITUB4')</t>
   </si>
 </sst>
 </file>
@@ -465,19 +465,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>15.33333333333333</v>
+        <v>281.2</v>
       </c>
       <c r="E2">
-        <v>0.1940541897340049</v>
+        <v>0.06309617041375704</v>
       </c>
       <c r="F2">
-        <v>0.08995154114899784</v>
+        <v>0.008909403727402454</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,19 +485,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>399.5</v>
       </c>
       <c r="E3">
-        <v>0.4655498159480524</v>
+        <v>0.03644341967363007</v>
       </c>
       <c r="F3">
-        <v>0.3902917202249652</v>
+        <v>-0.007442495402043892</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -505,19 +505,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17.25</v>
+        <v>303.3333333333333</v>
       </c>
       <c r="E4">
-        <v>0.2631466506366633</v>
+        <v>0.08751719938065272</v>
       </c>
       <c r="F4">
-        <v>0.2144411096800729</v>
+        <v>0.06944260409937408</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -525,19 +525,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>36.75</v>
+        <v>151</v>
       </c>
       <c r="E5">
-        <v>0.1360469837699516</v>
+        <v>0.07962630218446298</v>
       </c>
       <c r="F5">
-        <v>0.08431631213697521</v>
+        <v>0.05718129549838991</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,16 +548,16 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>13.66666666666667</v>
+        <v>431.6666666666667</v>
       </c>
       <c r="E6">
-        <v>0.1122103176154841</v>
+        <v>0.0479219299972713</v>
       </c>
       <c r="F6">
-        <v>0.07730096402321274</v>
+        <v>0.02987126735985657</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>16.33333333333333</v>
+        <v>450.5</v>
       </c>
       <c r="E7">
-        <v>0.05655021081764233</v>
+        <v>0.04635242179506038</v>
       </c>
       <c r="F7">
-        <v>0.02177238749767807</v>
+        <v>0.03424381347533489</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>13.66666666666667</v>
+        <v>591.5</v>
       </c>
       <c r="E8">
-        <v>0.2009173038658227</v>
+        <v>0.05250327122875675</v>
       </c>
       <c r="F8">
-        <v>0.1649669216685108</v>
+        <v>0.02291625463259517</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -605,19 +605,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>13.33333333333333</v>
+        <v>703.5</v>
       </c>
       <c r="E9">
-        <v>0.2200104488474128</v>
+        <v>0.02433165906909607</v>
       </c>
       <c r="F9">
-        <v>0.1839063471432536</v>
+        <v>0.001727750229619796</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,19 +625,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>517.5</v>
       </c>
       <c r="E10">
-        <v>0.2432894618021062</v>
+        <v>0.05051206833329203</v>
       </c>
       <c r="F10">
-        <v>0.2083728129162697</v>
+        <v>0.03826945330795395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -645,19 +645,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>6.666666666666667</v>
+        <v>93.5</v>
       </c>
       <c r="E11">
-        <v>0.2889368126019505</v>
+        <v>0.06228811805487422</v>
       </c>
       <c r="F11">
-        <v>0.2532803266308897</v>
+        <v>0.05077786564081466</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -665,19 +665,19 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>280.5</v>
       </c>
       <c r="E12">
-        <v>0.3943366883116144</v>
+        <v>0.04839495386133241</v>
       </c>
       <c r="F12">
-        <v>0.3568923626745082</v>
+        <v>0.03679007734677109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -685,19 +685,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="E13">
-        <v>0.02670141089215328</v>
+        <v>0.009355484450587204</v>
       </c>
       <c r="F13">
-        <v>-0.007852177262482218</v>
+        <v>-0.002530308688699412</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -705,19 +705,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="E14">
-        <v>0.1905388097933511</v>
+        <v>0.006385821536452507</v>
       </c>
       <c r="F14">
-        <v>0.1560746196161107</v>
+        <v>-0.004543581424052978</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -725,19 +725,19 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>1715</v>
       </c>
       <c r="E15">
-        <v>0.1099639332017062</v>
+        <v>0.1573994457098709</v>
       </c>
       <c r="F15">
-        <v>0.07185344442641073</v>
+        <v>0.1343140824102202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -745,19 +745,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>13.33333333333333</v>
+        <v>1733</v>
       </c>
       <c r="E16">
-        <v>0.0536923949489222</v>
+        <v>0.1016578421426952</v>
       </c>
       <c r="F16">
-        <v>0.01948425145487542</v>
+        <v>0.0803527804869133</v>
       </c>
     </row>
   </sheetData>
